--- a/resources/data/external_command_db.xlsx
+++ b/resources/data/external_command_db.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$411</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="153">
   <si>
     <t xml:space="preserve">display_name</t>
   </si>
@@ -169,6 +169,12 @@
     <t xml:space="preserve">{"package": "com.retroarch", "intent": "android.intent.action.MAIN", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"ROM","value":"XXROM_PATHXX","type":"string"},{"key": "LIBRETRO","value":"XXCORE_BASE_PATHXX/XXCORE_STEMXX_android.so","type":"string"},{"key":"CONFIGFILE","value":"XXCFG_PATHXX","type": "string"},{"key":"REFRESH","value":"60","type":"string"}], "action": "", "category": "android.intent.category.LAUNCHER", "className": "com.retroarch.browser.retroactivity.RetroActivityFuture"}</t>
   </si>
   <si>
+    <t xml:space="preserve">/system/bin/am start -n org.dolphinemu.dolphinemu/org.dolphinemu.dolphinemu.ui.main.MainActivity -a android.intent.action.VIEW -eu AutoStartFile "XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "org.dolphinemu.dolphinemu", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"AutoStartFile","value":"XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "org.dolphinemu.dolphinemu.ui.main.MainActivity"}</t>
+  </si>
+  <si>
     <t xml:space="preserve">2600.EMU (Atari 2600)</t>
   </si>
   <si>
@@ -181,10 +187,10 @@
     <t xml:space="preserve">Ataroid (Atari 2600)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.androidemu.atari/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.androidemu.atari", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.androidemu.atari/com.androidemu.atari.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.androidemu.atari", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.androidemu.atari.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">C64.EMU (Commodore 64)</t>
@@ -199,25 +205,25 @@
     <t xml:space="preserve">DraStic (Nintendo DS)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.dsemu.drastic/.DraSticActivity -a android.intent.action.MAIN -c android.intent.category.LAUNCHER -e GAMEPATH "XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.dsemu.drastic", "intent": "android.intent.action.MAIN", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"GAMEPATH","value":"XXROM_PATHXX","type": "string"}], "action": "", "category": "android.intent.category.LAUNCHER", "className": ".DraSticActivity"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/system/bin/am start --user 0 -n com.epsxe.ePSXe/.ePSXe -a android.intent.action.MAIN -c android.intent.category.LAUNCHER -e com.epsxe.ePSXe.isoName "XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.epsxe.ePSXe", "intent": "android.intent.action.MAIN", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"com.epsxe.ePSXe.isoName","value":"XXROM_PATHXX","type": "string"}], "action": "", "category": "android.intent.category.LAUNCHER", "className": ".ePSXe"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.dsemu.drastic/.DraSticActivity -a android.intent.action.VIEW -c android.intent.category.LAUNCHER -e GAMEPATH "XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.dsemu.drastic", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"GAMEPATH","value":"XXROM_PATHXX","type": "string"}], "action": "", "category": "android.intent.category.LAUNCHER", "className": "com.dsemu.drastic.DraSticActivity"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system/bin/am start --user 0 -n com.epsxe.ePSXe/com.epsxe.ePSXe.ePSXe -a android.intent.action.MAIN -c android.intent.category.LAUNCHER -e com.epsxe.ePSXe.isoName "XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.epsxe.ePSXe", "intent": "android.intent.action.MAIN", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"com.epsxe.ePSXe.isoName","value":"XXROM_PATHXX","type": "string"}], "action": "", "category": "android.intent.category.LAUNCHER", "className": "com.epsxe.ePSXe.ePSXe"}</t>
   </si>
   <si>
     <t xml:space="preserve">GameBoid (GBA)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.androidemu.gba/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.androidemu.gba", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.androidemu.gba/com.androidemu.gba.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.androidemu.gba", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.androidemu.gba.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">GBA.EMU (GBA)</t>
@@ -241,28 +247,28 @@
     <t xml:space="preserve">GBCoid (GBC)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.androidemu.gbc/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.androidemu.gbc", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.androidemu.gbc/com.androidemu.gbc.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.androidemu.gbc", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.androidemu.gbc.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">Gearoid (Sega GG)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.androidemu.gg/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.androidemu.gg", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.androidemu.gg/com.androidemu.gg.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.androidemu.gg", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.androidemu.gg.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">Gensoid (Sega Gen)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.androidemu.gens/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.androidemu.gens,"android.intent.action.VIEW", "intent": "", "dataType": "", "dataURI": "270532608", "flags": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "extras": "", "action": "", "category": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.androidemu.gens/com.androidemu.gens.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.androidemu.gens”, "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "270532608", "flags": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "extras": "", "action": "", "category": "com.androidemu.gens.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">MAME4droid (Arcade 0.139u1)</t>
@@ -313,19 +319,19 @@
     <t xml:space="preserve">My Boy (GBA)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start --user 0 -n com.fastemulator.gba/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.fastemulator.gba", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start --user 0 -n com.fastemulator.gba/com.fastemulator.gba.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.fastemulator.gba", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.fastemulator.gba.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">N64oid (N64)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.androidemu.n64/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.androidemu.n64", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.androidemu.n64/com.androidemu.n64.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.androidemu.n64", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.androidemu.n64.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">NEO.EMU (Neo Geo)</t>
@@ -349,10 +355,10 @@
     <t xml:space="preserve">NESoid (NES)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.androidemu.nes/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.androidemu.nes", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.androidemu.nes/com.androidemu.nes.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.androidemu.nes", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.androidemu.nes.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">NGP.EMU (NGP)</t>
@@ -376,19 +382,19 @@
     <t xml:space="preserve">PPSSPP (PSP)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n org.ppsspp.ppsspp/.PpssppActivity -e org.ppsspp.ppsspp.Shortcuts "XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "org.ppsspp.ppsspp", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"org.ppsspp.ppsspp.Shortcuts","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".PpssppActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n org.ppsspp.ppsspp/org.ppsspp.ppsspp.PpssppActivity -e org.ppsspp.ppsspp.Shortcuts "XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "org.ppsspp.ppsspp", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"org.ppsspp.ppsspp.Shortcuts","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "org.ppsspp.ppsspp.PpssppActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">Reicast (Dreamcast)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.reicast.emulator/.GL2JNIActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.reicast.emulator", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".GL2JNIActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.reicast.emulator/com.reicast.emulator.GL2JNIActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.reicast.emulator", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.reicast.emulator.GL2JNIActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">/system/bin/am start --user 0 -a android.intent.action.MAIN -c android.intent.category.LAUNCHER -e CONFIGFILE XXCFG_PATHXX -e IME com.android.inputmethod.latin/.LatinIME -n com.retroarch/.browser.retroactivity.RetroActivityFuture  --activity-clear-task --activity-clear-top --activity-no-history</t>
@@ -409,19 +415,19 @@
     <t xml:space="preserve">SNesoid (SNES)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.androidemu.snes/.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.androidemu.snes", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".EmulatorActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.androidemu.snes/com.androidemu.snes.EmulatorActivity -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.androidemu.snes", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.androidemu.snes.EmulatorActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">SuperGNES lite (SNES)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start -n com.bubblezapgames.supergnes_lite/.SuperGNES -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "com.bubblezapgames.supergnes_lite", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": ".SuperGNES"}</t>
+    <t xml:space="preserve">/system/bin/am start -n com.bubblezapgames.supergnes_lite/com.bubblezapgames.supergnes_lite.SuperGNES -a android.intent.action.VIEW -eu Uri "file://XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "com.bubblezapgames.supergnes_lite", "intent": "android.intent.action.VIEW", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"Uri","value":"file://XXROM_PATHXX","type": "string"}], "action": "", "category": "", "className": "com.bubblezapgames.supergnes_lite.SuperGNES"}</t>
   </si>
   <si>
     <t xml:space="preserve">UAE4ARM (Amiga)</t>
@@ -436,10 +442,10 @@
     <t xml:space="preserve">UAE4droid (Amiga)</t>
   </si>
   <si>
-    <t xml:space="preserve">/system/bin/am start --user 0 -n org.ab.uae/.StartActivity -a android.intent.action.MAIN -c android.intent.category.LAUNCHER -e v "XXROM_PATHXX"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"package": "org.ab.uae", "intent": "android.intent.action.MAIN", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"v","value":"XXROM_PATHXX","type": "string"}], "action": "", "category": "android.intent.category.LAUNCHER", "className": ".StartActivity"}</t>
+    <t xml:space="preserve">/system/bin/am start --user 0 -n org.ab.uae/org.ab.uae.StartActivity -a android.intent.action.MAIN -c android.intent.category.LAUNCHER -e v "XXROM_PATHXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"package": "org.ab.uae", "intent": "android.intent.action.MAIN", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"v","value":"XXROM_PATHXX","type": "string"}], "action": "", "category": "android.intent.category.LAUNCHER", "className": "org.ab.uae.StartActivity"}</t>
   </si>
   <si>
     <t xml:space="preserve">uoYabause (Saturn)</t>
@@ -458,9 +464,6 @@
   </si>
   <si>
     <t xml:space="preserve">{"package": "com.retroarch.aarch64", "intent": "android.intent.action.MAIN", "dataType": "", "dataURI": "", "flags": "270532608", "extras": [{"key":"ROM","value":"XXROM_PATHXX","type":"string"},{"key": "LIBRETRO","value":"XXCORE_BASE_PATHXX/XXCORE_STEMXX_android.so","type":"string"},{"key":"CONFIGFILE","value":"XXCFG_PATHXX","type": "string"},{"key":"REFRESH","value":"60","type":"string"}], "action": "", "category": "android.intent.category.LAUNCHER", "className": "com.retroarch.browser.retroactivity.RetroActivityFuture"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/system/bin/am --user 0 start -n com.epsxe.ePSXe/.ePSXe -a android.intent.action.MAIN -c android.intent.category.LAUNCHER -e com.epsxe.ePSXe.isoName "XXROM_PATHXX"</t>
   </si>
   <si>
     <t xml:space="preserve">/system/bin/am start --user 0 -a android.intent.action.MAIN -c android.intent.category.LAUNCHER -n com.retroarch.aarch64/com.retroarch.browser.retroactivity.RetroActivityFuture --es "CONFIGFILE" "XXCFG_PATHXX" --es "IME" com.android.inputmethod.latin/.LatinIME</t>
@@ -568,7 +571,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,6 +586,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -798,10 +805,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1666,7 +1673,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>45</v>
@@ -1681,15 +1688,15 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
@@ -1704,15 +1711,15 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -1727,15 +1734,15 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -1750,15 +1757,15 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
@@ -1781,7 +1788,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>45</v>
@@ -1796,15 +1803,15 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>45</v>
@@ -1819,15 +1826,15 @@
         <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>45</v>
@@ -1842,15 +1849,15 @@
         <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>45</v>
@@ -1865,15 +1872,15 @@
         <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>45</v>
@@ -1888,15 +1895,15 @@
         <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>45</v>
@@ -1911,15 +1918,15 @@
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>45</v>
@@ -1934,15 +1941,15 @@
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>45</v>
@@ -1957,15 +1964,15 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>45</v>
@@ -1980,15 +1987,15 @@
         <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>45</v>
@@ -2003,15 +2010,15 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>45</v>
@@ -2026,15 +2033,15 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>45</v>
@@ -2049,15 +2056,15 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>45</v>
@@ -2072,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>45</v>
@@ -2095,15 +2102,15 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>45</v>
@@ -2118,15 +2125,15 @@
         <v>0</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>45</v>
@@ -2141,15 +2148,15 @@
         <v>0</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>45</v>
@@ -2164,15 +2171,15 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>45</v>
@@ -2187,15 +2194,15 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>45</v>
@@ -2210,15 +2217,15 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>45</v>
@@ -2233,15 +2240,15 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>45</v>
@@ -2264,7 +2271,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>45</v>
@@ -2279,15 +2286,15 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>45</v>
@@ -2302,15 +2309,15 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>45</v>
@@ -2325,15 +2332,15 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>45</v>
@@ -2348,15 +2355,15 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>45</v>
@@ -2371,15 +2378,15 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>45</v>
@@ -2394,42 +2401,42 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="1" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="G76" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="D77" s="1" t="n">
         <v>0</v>
       </c>
@@ -2437,18 +2444,18 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>0</v>
@@ -2460,18 +2467,18 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>0</v>
@@ -2483,18 +2490,18 @@
         <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>0</v>
@@ -2506,18 +2513,18 @@
         <v>0</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>0</v>
@@ -2529,18 +2536,18 @@
         <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>0</v>
@@ -2552,18 +2559,18 @@
         <v>0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>0</v>
@@ -2575,18 +2582,18 @@
         <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>0</v>
@@ -2598,18 +2605,18 @@
         <v>0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>0</v>
@@ -2621,18 +2628,18 @@
         <v>0</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>0</v>
@@ -2644,18 +2651,18 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>0</v>
@@ -2667,18 +2674,18 @@
         <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>0</v>
@@ -2690,18 +2697,18 @@
         <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>0</v>
@@ -2713,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>0</v>
@@ -2736,18 +2743,18 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>0</v>
@@ -2759,18 +2766,18 @@
         <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>0</v>
@@ -2782,18 +2789,18 @@
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>0</v>
@@ -2805,18 +2812,18 @@
         <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>0</v>
@@ -2828,18 +2835,18 @@
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>0</v>
@@ -2851,18 +2858,18 @@
         <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>0</v>
@@ -2874,18 +2881,18 @@
         <v>0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>0</v>
@@ -2897,18 +2904,18 @@
         <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>0</v>
@@ -2920,18 +2927,18 @@
         <v>0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>0</v>
@@ -2943,18 +2950,18 @@
         <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>0</v>
@@ -2966,18 +2973,18 @@
         <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>0</v>
@@ -2989,18 +2996,18 @@
         <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>0</v>
@@ -3012,18 +3019,18 @@
         <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>0</v>
@@ -3035,18 +3042,18 @@
         <v>0</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>0</v>
@@ -3058,18 +3065,18 @@
         <v>0</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>0</v>
@@ -3081,18 +3088,18 @@
         <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>0</v>
@@ -3104,18 +3111,18 @@
         <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>0</v>
@@ -3127,61 +3134,64 @@
         <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>0</v>
@@ -3193,21 +3203,18 @@
         <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B111" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1" t="n">
         <v>0</v>
@@ -3216,18 +3223,18 @@
         <v>0</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>0</v>
@@ -3239,18 +3246,18 @@
         <v>0</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>0</v>
@@ -3262,18 +3269,18 @@
         <v>0</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>0</v>
@@ -3285,18 +3292,18 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>0</v>
@@ -3308,18 +3315,18 @@
         <v>0</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>0</v>
@@ -3331,18 +3338,18 @@
         <v>0</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>0</v>
@@ -3354,18 +3361,18 @@
         <v>0</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>0</v>
@@ -3377,18 +3384,18 @@
         <v>0</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>0</v>
@@ -3400,18 +3407,18 @@
         <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>0</v>
@@ -3423,18 +3430,18 @@
         <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>0</v>
@@ -3446,18 +3453,18 @@
         <v>0</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>0</v>
@@ -3469,18 +3476,18 @@
         <v>0</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>0</v>
@@ -3492,18 +3499,18 @@
         <v>0</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>0</v>
@@ -3515,18 +3522,18 @@
         <v>0</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>0</v>
@@ -3538,18 +3545,18 @@
         <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>0</v>
@@ -3561,18 +3568,18 @@
         <v>0</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>0</v>
@@ -3584,18 +3591,18 @@
         <v>0</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>0</v>
@@ -3607,18 +3614,18 @@
         <v>0</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>0</v>
@@ -3630,18 +3637,18 @@
         <v>0</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>0</v>
@@ -3653,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>0</v>
@@ -3676,18 +3683,18 @@
         <v>0</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>0</v>
@@ -3699,18 +3706,18 @@
         <v>0</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>0</v>
@@ -3722,18 +3729,18 @@
         <v>0</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>0</v>
@@ -3745,18 +3752,18 @@
         <v>0</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>0</v>
@@ -3768,18 +3775,18 @@
         <v>0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>0</v>
@@ -3791,18 +3798,18 @@
         <v>0</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>0</v>
@@ -3814,18 +3821,18 @@
         <v>0</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>0</v>
@@ -3837,18 +3844,18 @@
         <v>0</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>0</v>
@@ -3860,18 +3867,18 @@
         <v>0</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>0</v>
@@ -3883,38 +3890,106 @@
         <v>0</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C141" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G141" s="1" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F411"/>
+  <autoFilter ref="A1:G144"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
